--- a/src/main/java/com/testdata/SambaSafety_testdata.xlsx
+++ b/src/main/java/com/testdata/SambaSafety_testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>FirstName</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>21-09-2020 10:56:47</t>
+  </si>
+  <si>
+    <t>21-09-2020 11:38:0</t>
+  </si>
+  <si>
+    <t>21-09-2020 11:38:3</t>
+  </si>
+  <si>
+    <t>21-09-2020 11:38:7</t>
+  </si>
+  <si>
+    <t>21-09-2020 11:38:10</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="39.7265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="6.59375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="27.66015625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="19.66796875" collapsed="true"/>
     <col min="4" max="16384" style="3" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -740,7 +752,7 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -751,7 +763,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -762,7 +774,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -773,7 +785,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/SambaSafety_testdata.xlsx
+++ b/src/main/java/com/testdata/SambaSafety_testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>FirstName</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>21-09-2020 11:38:10</t>
+  </si>
+  <si>
+    <t>22-09-2020 01:52:22</t>
+  </si>
+  <si>
+    <t>22-09-2020 01:52:28</t>
+  </si>
+  <si>
+    <t>22-09-2020 01:52:32</t>
+  </si>
+  <si>
+    <t>22-09-2020 01:52:38</t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -763,7 +775,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -774,7 +786,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -785,7 +797,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/SambaSafety_testdata.xlsx
+++ b/src/main/java/com/testdata/SambaSafety_testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
   <si>
     <t>FirstName</t>
   </si>
@@ -321,6 +321,90 @@
   </si>
   <si>
     <t>22-09-2020 01:52:38</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:26:49</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:26:54</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:0</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:5</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:27</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:30</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:32</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:35</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:37</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:39</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:42</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:44</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:46</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:27:49</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:47:49</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:47:55</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:0</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:6</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:28</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:31</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:33</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:36</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:38</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:41</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:43</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:46</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:48</t>
+  </si>
+  <si>
+    <t>22-09-2020 02:48:50</t>
   </si>
 </sst>
 </file>
@@ -764,7 +848,7 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,7 +859,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -786,7 +870,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -797,7 +881,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +971,7 @@
         <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -916,7 +1000,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -945,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -974,7 +1058,7 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1003,7 +1087,7 @@
         <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1032,7 +1116,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1061,7 +1145,7 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1090,7 +1174,7 @@
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1119,7 +1203,7 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1148,7 +1232,7 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
